--- a/database/httpstygodnikniepl.xlsx
+++ b/database/httpstygodnikniepl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1405,6 +1405,58 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/52301-2/</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/dzikusy-zachodu/</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/mejza-szepta-do-ucha/</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/poza-tym-w-numerze-93/</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/we-lbie-zielono/</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/wp-content/uploads/2021/11/10000000_477481973788923_1047024395927169680_n.mp4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/wp-content/uploads/2021/11/10000000_477481973788923_1047024395927169680_n.mp4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpstygodnikniepl.xlsx
+++ b/database/httpstygodnikniepl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1457,6 +1457,78 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/aleja-gwiazd-biegniemy/</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Aleją gwiazd biegniemy</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/kat-sprawiedliwosci/</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Kat sprawiedliwości</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/kupka-a-nie-kupa/</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Kupką, a nie kupą</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/male-jest-okropne/</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Małe jest okropne</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/poza-tym-w-numerze-96/</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Poza tym w numerze</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/wp-content/uploads/2021/12/10000000_1229758147834917_2022085004454793690_n.mp4</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/wp-content/uploads/2021/12/10000000_1229758147834917_2022085004454793690_n.mp4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpstygodnikniepl.xlsx
+++ b/database/httpstygodnikniepl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,6 +1529,402 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href=""&gt;&lt;h2 class="</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GALERIA NUMERU</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="#"</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nowy numer w każdy piątek za jedyne 6,66 zł</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="http://forum.nie.com.pl/"</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Forum</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="http://www.e-kiosk.pl/index.php?page=titleissues&amp;amp;id_title=1454"</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CZYTAJ NA KOMPUTERZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="http://www.facebook.com/TygodnikNIE/"</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="http://www.instagram.com/TygodnikNIE"</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="http://www.twitter.com/TygodnikNIE"</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="http://www.youtube.com/channel/UCKI8MqLlLCRYuzS9B-q3Eww"</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://instagram.com/TygodnikNIE"</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://play.google.com/store/apps/details?id=com.niedziennik&amp;amp;hl=pl"</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CZYTAJ NA TELEFONIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://twitter.com/tygodniknie?lang=pl"</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl"</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/aleja-gwiazd-biegniemy/"</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Aleją gwiazd biegniemy</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/author/asikorski/"</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Andrzej Sikorski</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/author/awl/"</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Agnieszka Wołk-Łaniewska</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/author/jurban/"</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>BLOG URBANA</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/author/redakcja/"</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Redakcja</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/author/tjasinski/"</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Tadeusz Jasiński</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/kat-sprawiedliwosci/"</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Kat sprawiedliwości</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Kontakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/kupka-a-nie-kupa/"</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Kupką, a nie kupą</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/male-jest-okropne/"</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Małe jest okropne</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/o-nas/"</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>O nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/poza-tym-w-numerze-96/"</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Poza tym w numerze</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/regulamin/"</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Regulamin</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/teksty/"</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TEKSTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/wp-content/uploads/2019/08/Polityka-Cookies.docx"</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Polityki Cookies</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/wp-content/uploads/2019/08/Polityka-prywatności.docx"</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Polityki Prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/wp-content/uploads/2021/12/10000000_1229758147834917_2022085004454793690_n.mp4"</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/wp-content/uploads/2021/12/10000000_1229758147834917_2022085004454793690_n.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/wp-login.php?action=lostpassword"</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nie pamiętasz hasła?</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/wp-login.php?loginSocial=facebook&amp;amp;redirect=https%3A%2F%2Ftygodniknie.pl%2F"</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Zaloguj się z</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://tygodniknie.pl/zasady-uzytkowania-aplikacji-mobilnej-tygodnik-nienie-oraz-polityka-prywatnosci/"</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Polityka prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://wordpress.org/plugins/gdpr-cookie-compliance"</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Powered by GDPR plugin</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://www.facebook.com/TygodnikNIE"</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="https://www.youtube.com/channel/UCKI8MqLlLCRYuzS9B-q3Eww"</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/href="javascript:void(0);"</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Używaj strzałek do góry/do dołu aby zwiększyć lub zmniejszyć głośność.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpstygodnikniepl.xlsx
+++ b/database/httpstygodnikniepl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1925,6 +1925,110 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>http://tygodniknie.pl/teksty/</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TEKSTY</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>http://tygodniknie.pl/wp-content/uploads/2019/08/Polityka-Cookies.docx</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Polityki Cookies</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>http://tygodniknie.pl/wp-content/uploads/2019/08/Polityka-prywatności.docx</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Polityki Prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://twitter.com/tygodniknie</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/gramatyka-wojny/</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/lombardczycy-znad-wisly/</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/przykleknac-przed-rydzykiem/</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Przyklęknąć przed Rydzykiem</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://tygodniknie.pl/title=</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Nie pamiętasz hasła?</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://wordpress.org/plugins/gdpr-cookie-compliance/</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>GDPR Cookie Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.e-kiosk.pl/index.php?page=titleissues&amp;amp;id_title=1454</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
